--- a/experiments/collated_data.bigrun1.xlsx
+++ b/experiments/collated_data.bigrun1.xlsx
@@ -5,21 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewblinn/Dropbox/projects/hazel3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewblinn/Dropbox/projects/hazel3/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3F91CC-11E5-6141-8096-4E0E91B2821A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20744455-4897-B949-8394-E9ACC84D2C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="collated_data" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">collated_data!$A$1:$P$321</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="52" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1711,7 +1714,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1728,8 +1731,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1739,10 +1740,13 @@
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1754,16 +1758,13 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8096,7 +8097,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D96F53F-B96D-024D-AAC0-0BCC915AC3E0}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D96F53F-B96D-024D-AAC0-0BCC915AC3E0}" name="PivotTable5" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -8293,7 +8294,7 @@
     <dataField name="Average of derived-percent-tests5" fld="10" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="34">
+    <format dxfId="60">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8305,7 +8306,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="59">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8317,7 +8318,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="58">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -8332,7 +8333,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="57">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -8350,7 +8351,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="56">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -8369,7 +8370,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="55">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -8387,7 +8388,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="54">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -8406,7 +8407,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="53">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -8421,7 +8422,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="52">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -8439,7 +8440,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="51">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -8458,7 +8459,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="50">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -8476,7 +8477,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="49">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -8495,7 +8496,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="48">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -8528,7 +8529,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="46">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -8547,7 +8548,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="45">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -8565,7 +8566,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="44">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -8584,7 +8585,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="43">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -8599,7 +8600,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="42">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -8617,7 +8618,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -8636,7 +8637,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="40">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -8654,7 +8655,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -8673,7 +8674,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="38">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -8688,7 +8689,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="37">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -8706,7 +8707,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="36">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -8725,7 +8726,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="35">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -8743,7 +8744,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="34">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -8776,7 +8777,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable5" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:M10" firstHeaderRow="1" firstDataRow="3" firstDataCol="3"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -8887,7 +8888,7 @@
     <dataField name="StdDev of derived-percent-tests4" fld="10" subtotal="stdDev" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="34">
-    <format dxfId="7">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8899,7 +8900,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="32">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8911,7 +8912,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -8926,7 +8927,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="30">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -8944,7 +8945,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -8963,7 +8964,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="28">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -8981,7 +8982,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -9000,7 +9001,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -9015,7 +9016,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -9033,7 +9034,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -9052,7 +9053,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -9070,7 +9071,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -9089,7 +9090,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -9122,7 +9123,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="19">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -9141,7 +9142,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="18">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -9159,7 +9160,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -9178,7 +9179,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -9193,7 +9194,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -9211,7 +9212,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -9230,7 +9231,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -9248,7 +9249,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -9267,7 +9268,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -9282,7 +9283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -9300,7 +9301,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -9319,7 +9320,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -9337,7 +9338,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -10574,7 +10575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -10683,25 +10684,25 @@
       <c r="B7" t="s">
         <v>344</v>
       </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
         <v>7.8125</v>
       </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
         <v>3.125</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>45.012500000000003</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>21.887500000000003</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>9.3002976142855616</v>
       </c>
       <c r="J7" s="6">
@@ -10718,25 +10719,25 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
         <v>18.75</v>
       </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
         <v>33.337499999999999</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>51.6875</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>50.012500000000003</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>33.407655239053049</v>
       </c>
       <c r="J8" s="6">
@@ -10756,25 +10757,25 @@
       <c r="B9" t="s">
         <v>345</v>
       </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
         <v>20.3125</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>61.25</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>23.95</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>33.35</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>19.787500000000001</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>32.690035069683589</v>
       </c>
       <c r="J9" s="6">
@@ -10791,25 +10792,25 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C10" s="8">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
         <v>20.3125</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>81.25</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>100</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>71.6875</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>79.162499999999994</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <v>23.085149060442671</v>
       </c>
       <c r="J10" s="6">
@@ -10826,39 +10827,39 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>356</v>
       </c>
       <c r="D13" s="6">
@@ -10878,99 +10879,96 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>355</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>7.8125</v>
       </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
         <v>3.125</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>45.012500000000003</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>21.887500000000003</v>
       </c>
-      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>18.75</v>
       </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
         <v>33.337499999999999</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>51.6875</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <v>50.012500000000003</v>
       </c>
-      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>20.3125</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>61.25</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>23.95</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>33.35</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <v>19.787500000000001</v>
       </c>
-      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="6">
         <v>20.3125</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>81.25</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>100</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>71.6875</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <v>79.162499999999994</v>
       </c>
     </row>
@@ -10998,13 +10996,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P321" sqref="A1:P321"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -11056,7 +11058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11106,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -11156,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -11206,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -11256,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -11306,7 +11308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -11356,7 +11358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -11406,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -11456,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -11506,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -11556,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -11606,7 +11608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -11656,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -11706,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -11756,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -11806,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -11856,7 +11858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -11906,7 +11908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -11956,7 +11958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -12006,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -12056,7 +12058,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -12106,7 +12108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -12156,7 +12158,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -12206,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -12256,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -12306,7 +12308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -12356,7 +12358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -12406,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -12456,7 +12458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -12506,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -12556,7 +12558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -12606,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -12656,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -12756,7 +12758,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -12806,7 +12808,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -12856,7 +12858,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -12906,7 +12908,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -12956,7 +12958,7 @@
         <v>-23.1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -13006,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -13056,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -13106,7 +13108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -13156,7 +13158,7 @@
         <v>-96</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -13206,7 +13208,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -13256,7 +13258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -13306,7 +13308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -13356,7 +13358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -13406,7 +13408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -13456,7 +13458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -13506,7 +13508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -13556,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -13606,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -13656,7 +13658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -13756,7 +13758,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -13806,7 +13808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -14256,7 +14258,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -14306,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -14356,7 +14358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -14406,7 +14408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -14456,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -14506,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -14556,7 +14558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>89</v>
       </c>
@@ -14606,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -14656,7 +14658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -14706,7 +14708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -14756,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -14806,7 +14808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -14856,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -14906,7 +14908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -14956,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -15006,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>99</v>
       </c>
@@ -15056,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -15106,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -15156,7 +15158,7 @@
         <v>-2200</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -15206,7 +15208,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -15256,7 +15258,7 @@
         <v>-66.7</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -15306,7 +15308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -15356,7 +15358,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -15406,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -15456,7 +15458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -15506,7 +15508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -15556,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>110</v>
       </c>
@@ -15606,7 +15608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>111</v>
       </c>
@@ -15656,7 +15658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -15706,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>113</v>
       </c>
@@ -15756,7 +15758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -15806,7 +15808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>115</v>
       </c>
@@ -15856,7 +15858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -15906,7 +15908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -15956,7 +15958,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>118</v>
       </c>
@@ -16006,7 +16008,7 @@
         <v>-62.5</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>119</v>
       </c>
@@ -16056,7 +16058,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -16106,7 +16108,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -16156,7 +16158,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>122</v>
       </c>
@@ -16206,7 +16208,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -16256,7 +16258,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -16306,7 +16308,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -16356,7 +16358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>126</v>
       </c>
@@ -16406,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -16456,7 +16458,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>128</v>
       </c>
@@ -16506,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>129</v>
       </c>
@@ -16556,7 +16558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -16606,7 +16608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>131</v>
       </c>
@@ -16656,7 +16658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>132</v>
       </c>
@@ -16706,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>133</v>
       </c>
@@ -16756,7 +16758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>134</v>
       </c>
@@ -16856,7 +16858,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>136</v>
       </c>
@@ -16956,7 +16958,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>138</v>
       </c>
@@ -17206,7 +17208,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>143</v>
       </c>
@@ -17256,7 +17258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>144</v>
       </c>
@@ -17406,7 +17408,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>147</v>
       </c>
@@ -17506,7 +17508,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -17556,7 +17558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>150</v>
       </c>
@@ -17606,7 +17608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>151</v>
       </c>
@@ -17656,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -17706,7 +17708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>153</v>
       </c>
@@ -17756,7 +17758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>154</v>
       </c>
@@ -17806,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>155</v>
       </c>
@@ -17856,7 +17858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>156</v>
       </c>
@@ -17906,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>157</v>
       </c>
@@ -17956,7 +17958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>158</v>
       </c>
@@ -18006,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>159</v>
       </c>
@@ -18056,7 +18058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>160</v>
       </c>
@@ -18106,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>161</v>
       </c>
@@ -18156,7 +18158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>162</v>
       </c>
@@ -18206,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>163</v>
       </c>
@@ -18256,7 +18258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>164</v>
       </c>
@@ -18306,7 +18308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>165</v>
       </c>
@@ -18356,7 +18358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>166</v>
       </c>
@@ -18406,7 +18408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>167</v>
       </c>
@@ -18456,7 +18458,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>168</v>
       </c>
@@ -18506,7 +18508,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -18556,7 +18558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>170</v>
       </c>
@@ -18606,7 +18608,7 @@
         <v>-87.5</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>171</v>
       </c>
@@ -18656,7 +18658,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>172</v>
       </c>
@@ -18706,7 +18708,7 @@
         <v>-88.9</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>173</v>
       </c>
@@ -18756,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>174</v>
       </c>
@@ -18806,7 +18808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>175</v>
       </c>
@@ -18856,7 +18858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>176</v>
       </c>
@@ -18906,7 +18908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>177</v>
       </c>
@@ -18956,7 +18958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>178</v>
       </c>
@@ -19006,7 +19008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>179</v>
       </c>
@@ -19056,7 +19058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>180</v>
       </c>
@@ -19106,7 +19108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>181</v>
       </c>
@@ -19156,7 +19158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>182</v>
       </c>
@@ -19206,7 +19208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>183</v>
       </c>
@@ -19256,7 +19258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>184</v>
       </c>
@@ -19306,7 +19308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>185</v>
       </c>
@@ -19406,7 +19408,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>187</v>
       </c>
@@ -19456,7 +19458,7 @@
         <v>-91.7</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>188</v>
       </c>
@@ -19506,7 +19508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>189</v>
       </c>
@@ -19556,7 +19558,7 @@
         <v>-133.30000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>190</v>
       </c>
@@ -19606,7 +19608,7 @@
         <v>-88.9</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>191</v>
       </c>
@@ -19656,7 +19658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>192</v>
       </c>
@@ -19706,7 +19708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>193</v>
       </c>
@@ -19756,7 +19758,7 @@
         <v>-97.4</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>194</v>
       </c>
@@ -19806,7 +19808,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>195</v>
       </c>
@@ -19856,7 +19858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>196</v>
       </c>
@@ -19906,7 +19908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>197</v>
       </c>
@@ -19956,7 +19958,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>198</v>
       </c>
@@ -20056,7 +20058,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>200</v>
       </c>
@@ -20106,7 +20108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -20156,7 +20158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>202</v>
       </c>
@@ -20206,7 +20208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -20256,7 +20258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -20306,7 +20308,7 @@
         <v>-66.7</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>205</v>
       </c>
@@ -20356,7 +20358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>206</v>
       </c>
@@ -20406,7 +20408,7 @@
         <v>-87.5</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>207</v>
       </c>
@@ -20456,7 +20458,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>208</v>
       </c>
@@ -20506,7 +20508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>209</v>
       </c>
@@ -20556,7 +20558,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>210</v>
       </c>
@@ -20606,7 +20608,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>211</v>
       </c>
@@ -20656,7 +20658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>212</v>
       </c>
@@ -20706,7 +20708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>214</v>
       </c>
@@ -20756,7 +20758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>215</v>
       </c>
@@ -20806,7 +20808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>216</v>
       </c>
@@ -20856,7 +20858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>217</v>
       </c>
@@ -20906,7 +20908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>218</v>
       </c>
@@ -20956,7 +20958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>219</v>
       </c>
@@ -21006,7 +21008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>220</v>
       </c>
@@ -21056,7 +21058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>221</v>
       </c>
@@ -21106,7 +21108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>222</v>
       </c>
@@ -21156,7 +21158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>223</v>
       </c>
@@ -21206,7 +21208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>224</v>
       </c>
@@ -21256,7 +21258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>225</v>
       </c>
@@ -21306,7 +21308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>226</v>
       </c>
@@ -21356,7 +21358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>227</v>
       </c>
@@ -21406,7 +21408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>228</v>
       </c>
@@ -21456,7 +21458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>229</v>
       </c>
@@ -21506,7 +21508,7 @@
         <v>-78.900000000000006</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>230</v>
       </c>
@@ -21556,7 +21558,7 @@
         <v>-83.3</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>231</v>
       </c>
@@ -21606,7 +21608,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>232</v>
       </c>
@@ -21656,7 +21658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>233</v>
       </c>
@@ -21706,7 +21708,7 @@
         <v>-33.299999999999997</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>234</v>
       </c>
@@ -21756,7 +21758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>235</v>
       </c>
@@ -21806,7 +21808,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>236</v>
       </c>
@@ -21856,7 +21858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>237</v>
       </c>
@@ -21906,7 +21908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>238</v>
       </c>
@@ -21956,7 +21958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>239</v>
       </c>
@@ -22006,7 +22008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>240</v>
       </c>
@@ -22056,7 +22058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>241</v>
       </c>
@@ -22106,7 +22108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>242</v>
       </c>
@@ -22156,7 +22158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>243</v>
       </c>
@@ -22206,7 +22208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>244</v>
       </c>
@@ -22256,7 +22258,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>245</v>
       </c>
@@ -22306,7 +22308,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>246</v>
       </c>
@@ -22356,7 +22358,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>247</v>
       </c>
@@ -22406,7 +22408,7 @@
         <v>-114.3</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>248</v>
       </c>
@@ -22456,7 +22458,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>249</v>
       </c>
@@ -22506,7 +22508,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>250</v>
       </c>
@@ -22556,7 +22558,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>251</v>
       </c>
@@ -22606,7 +22608,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>252</v>
       </c>
@@ -22656,7 +22658,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>253</v>
       </c>
@@ -22706,7 +22708,7 @@
         <v>-95.2</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>254</v>
       </c>
@@ -22756,7 +22758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>255</v>
       </c>
@@ -22806,7 +22808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>256</v>
       </c>
@@ -22856,7 +22858,7 @@
         <v>-4800</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>257</v>
       </c>
@@ -22906,7 +22908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>258</v>
       </c>
@@ -22956,7 +22958,7 @@
         <v>-27.3</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>259</v>
       </c>
@@ -23006,7 +23008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>260</v>
       </c>
@@ -23056,7 +23058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>261</v>
       </c>
@@ -23106,7 +23108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>262</v>
       </c>
@@ -23156,7 +23158,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>263</v>
       </c>
@@ -23206,7 +23208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>264</v>
       </c>
@@ -23256,7 +23258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>265</v>
       </c>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>266</v>
       </c>
@@ -23356,7 +23358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>267</v>
       </c>
@@ -23406,7 +23408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>268</v>
       </c>
@@ -23456,7 +23458,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>269</v>
       </c>
@@ -23506,7 +23508,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>270</v>
       </c>
@@ -23556,7 +23558,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>271</v>
       </c>
@@ -23606,7 +23608,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>272</v>
       </c>
@@ -23656,7 +23658,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>273</v>
       </c>
@@ -23706,7 +23708,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>274</v>
       </c>
@@ -23756,7 +23758,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>275</v>
       </c>
@@ -23806,7 +23808,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>276</v>
       </c>
@@ -23856,7 +23858,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>277</v>
       </c>
@@ -23906,7 +23908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>279</v>
       </c>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>280</v>
       </c>
@@ -24006,7 +24008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>281</v>
       </c>
@@ -24056,7 +24058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>282</v>
       </c>
@@ -24106,7 +24108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>283</v>
       </c>
@@ -24156,7 +24158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>284</v>
       </c>
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>285</v>
       </c>
@@ -24256,7 +24258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>286</v>
       </c>
@@ -24306,7 +24308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>287</v>
       </c>
@@ -24356,7 +24358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>288</v>
       </c>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>289</v>
       </c>
@@ -24456,7 +24458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>290</v>
       </c>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>291</v>
       </c>
@@ -24556,7 +24558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>292</v>
       </c>
@@ -24606,7 +24608,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>293</v>
       </c>
@@ -24656,7 +24658,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>294</v>
       </c>
@@ -24706,7 +24708,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>295</v>
       </c>
@@ -24756,7 +24758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>296</v>
       </c>
@@ -24806,7 +24808,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>297</v>
       </c>
@@ -24856,7 +24858,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>298</v>
       </c>
@@ -24906,7 +24908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>299</v>
       </c>
@@ -24956,7 +24958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>300</v>
       </c>
@@ -25006,7 +25008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>301</v>
       </c>
@@ -25056,7 +25058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>302</v>
       </c>
@@ -25106,7 +25108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>303</v>
       </c>
@@ -25156,7 +25158,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>304</v>
       </c>
@@ -25206,7 +25208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>305</v>
       </c>
@@ -25256,7 +25258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>306</v>
       </c>
@@ -25306,7 +25308,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>307</v>
       </c>
@@ -25356,7 +25358,7 @@
         <v>-37.5</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>308</v>
       </c>
@@ -25406,7 +25408,7 @@
         <v>-37.5</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>309</v>
       </c>
@@ -25456,7 +25458,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>310</v>
       </c>
@@ -25506,7 +25508,7 @@
         <v>-66.7</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>311</v>
       </c>
@@ -25556,7 +25558,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>312</v>
       </c>
@@ -25606,7 +25608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>313</v>
       </c>
@@ -25656,7 +25658,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>314</v>
       </c>
@@ -25706,7 +25708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>315</v>
       </c>
@@ -25756,7 +25758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>316</v>
       </c>
@@ -25806,7 +25808,7 @@
         <v>-83.3</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>317</v>
       </c>
@@ -25856,7 +25858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>318</v>
       </c>
@@ -25906,7 +25908,7 @@
         <v>-94.1</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>319</v>
       </c>
@@ -25956,7 +25958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>320</v>
       </c>
@@ -26006,7 +26008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>321</v>
       </c>
@@ -26056,7 +26058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>322</v>
       </c>
@@ -26106,7 +26108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>323</v>
       </c>
@@ -26156,7 +26158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>324</v>
       </c>
@@ -26256,7 +26258,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>326</v>
       </c>
@@ -26306,7 +26308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>327</v>
       </c>
@@ -26356,7 +26358,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>328</v>
       </c>
@@ -26406,7 +26408,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>329</v>
       </c>
@@ -26456,7 +26458,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>330</v>
       </c>
@@ -26606,7 +26608,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>333</v>
       </c>
@@ -26656,7 +26658,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>334</v>
       </c>
@@ -26706,7 +26708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>335</v>
       </c>
@@ -26756,7 +26758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>336</v>
       </c>
@@ -26806,7 +26808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>337</v>
       </c>
@@ -26856,7 +26858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>338</v>
       </c>
@@ -26906,7 +26908,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>339</v>
       </c>
@@ -26956,7 +26958,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>340</v>
       </c>
@@ -27006,7 +27008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>341</v>
       </c>
@@ -27057,6 +27059,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P321" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="100"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>